--- a/Examples/objecthandler/simple/AddinXl/AddinXlHw.xlsx
+++ b/Examples/objecthandler/simple/AddinXl/AddinXlHw.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>adder:</t>
   </si>
   <si>
     <t xml:space="preserve">1 + 2 = </t>
+  </si>
+  <si>
+    <t>func:</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -369,19 +372,28 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="str">
-        <f>_xll.slAdder("adder", 1)</f>
-        <v>adder#0001</v>
+        <f>_xll.slFunc()</f>
+        <v>f()</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xll.slAdder("adder", 1)</f>
+        <v>adder#0000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>_xll.slAdderAdd(B1,2)</f>
+      <c r="B3">
+        <f>_xll.slAdderAdd(B2,2)</f>
         <v>3</v>
       </c>
     </row>
